--- a/data/trans_camb/P1001-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P1001-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,25</t>
+          <t>2,48</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,62</t>
+          <t>1,53</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,78</t>
+          <t>1,19</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7,27</t>
+          <t>8,41</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>7,25</t>
+          <t>5,98</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>5,56</t>
+          <t>4,01</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>5,72</t>
+          <t>5,43</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>4,9</t>
+          <t>3,76</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>4,57</t>
+          <t>2,68</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 9,67</t>
+          <t>0,14; 5,08</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 8,84</t>
+          <t>-0,87; 3,9</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 8,72</t>
+          <t>-1,07; 3,65</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,04; 15,55</t>
+          <t>4,87; 11,65</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 15,51</t>
+          <t>2,87; 9,27</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 11,82</t>
+          <t>1,53; 6,59</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,78; 10,58</t>
+          <t>3,43; 7,53</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,15; 9,68</t>
+          <t>1,63; 5,95</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,61; 8,8</t>
+          <t>0,84; 4,44</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>147,43%</t>
+          <t>57,58%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>90,86%</t>
+          <t>35,63%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>96,39%</t>
+          <t>27,6%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>112,57%</t>
+          <t>126,61%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>112,28%</t>
+          <t>90,09%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>86,06%</t>
+          <t>60,33%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>123,12%</t>
+          <t>99,29%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>105,35%</t>
+          <t>68,73%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>98,34%</t>
+          <t>49,02%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-41,83; 1225,14</t>
+          <t>1,76; 148,79</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-68,65; —</t>
+          <t>-17,68; 120,02</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-61,99; —</t>
+          <t>-21,62; 110,06</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-13,15; 456,84</t>
+          <t>60,89; 212,21</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-7,39; 433,3</t>
+          <t>34,91; 170,95</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-3,98; 362,65</t>
+          <t>18,24; 122,85</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,0; 396,0</t>
+          <t>52,93; 162,89</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-8,45; 319,24</t>
+          <t>24,54; 130,13</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>7,31; 300,85</t>
+          <t>12,88; 97,52</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,12</t>
+          <t>2,21</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,32</t>
+          <t>-1,02</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,19</t>
+          <t>-1,85</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>8,63</t>
+          <t>8,17</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>5,73</t>
+          <t>4,49</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>3,95</t>
+          <t>3,54</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>5,37</t>
+          <t>5,22</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>3,53</t>
+          <t>1,77</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>2,66</t>
+          <t>0,46</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 5,24</t>
+          <t>-0,24; 4,61</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 4,32</t>
+          <t>-3,29; 0,99</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 4,17</t>
+          <t>-4,71; 0,2</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,92; 12,3</t>
+          <t>5,23; 11,32</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,28; 9,29</t>
+          <t>1,34; 7,19</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,05; 7,04</t>
+          <t>0,91; 5,8</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,03; 7,5</t>
+          <t>3,25; 7,05</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,38; 5,84</t>
+          <t>-0,15; 3,49</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,84; 4,74</t>
+          <t>-2,29; 2,19</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>46,33%</t>
+          <t>36,92%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>28,77%</t>
+          <t>-17,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
+          <t>-30,97%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>107,41%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>58,99%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>46,59%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>76,7%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>25,98%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>129,17%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>85,78%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>59,15%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>95,37%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>62,71%</t>
-        </is>
-      </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>47,34%</t>
+          <t>6,73%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-7,88; 148,07</t>
+          <t>-5,32; 92,03</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-21,99; 135,73</t>
+          <t>-45,73; 21,55</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-23,7; 124,17</t>
+          <t>-64,81; 4,26</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>56,95; 231,5</t>
+          <t>57,74; 182,46</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>26,34; 174,58</t>
+          <t>14,72; 113,87</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>11,53; 138,83</t>
+          <t>8,8; 95,16</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>45,19; 156,7</t>
+          <t>40,97; 119,03</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>19,96; 122,51</t>
+          <t>-2,23; 57,39</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>10,94; 101,04</t>
+          <t>-30,21; 34,82</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,21</t>
+          <t>-1,88</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,02</t>
+          <t>-1,39</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,9</t>
+          <t>1,31</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>8,17</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>4,49</t>
+          <t>-0,29</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>3,66</t>
+          <t>-4,37</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>5,22</t>
+          <t>-0,99</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1,77</t>
+          <t>-0,79</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>1,41</t>
+          <t>-1,52</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 4,61</t>
+          <t>-4,76; 0,91</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 0,99</t>
+          <t>-4,14; 1,23</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 1,07</t>
+          <t>-1,74; 4,7</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5,23; 11,32</t>
+          <t>-4,15; 3,05</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,34; 7,19</t>
+          <t>-3,95; 2,96</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,05; 5,96</t>
+          <t>-9,47; -0,28</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,25; 7,05</t>
+          <t>-3,3; 1,42</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 3,49</t>
+          <t>-3,21; 1,46</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 2,99</t>
+          <t>-4,89; 1,1</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>36,92%</t>
+          <t>-25,74%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-17,0%</t>
+          <t>-19,0%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-14,99%</t>
+          <t>17,9%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>107,41%</t>
+          <t>-1,18%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>58,99%</t>
+          <t>-2,15%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>48,17%</t>
+          <t>-32,76%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>76,7%</t>
+          <t>-9,54%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>25,98%</t>
+          <t>-7,66%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>20,72%</t>
+          <t>-14,68%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-5,32; 92,03</t>
+          <t>-54,2; 19,73</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-45,73; 21,55</t>
+          <t>-46,04; 24,4</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-42,14; 21,71</t>
+          <t>-19,69; 75,01</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>57,74; 182,46</t>
+          <t>-26,61; 26,63</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>14,72; 113,87</t>
+          <t>-26,48; 26,25</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>11,08; 97,12</t>
+          <t>-61,64; -2,57</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>40,97; 119,03</t>
+          <t>-28,62; 15,08</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 57,39</t>
+          <t>-27,17; 17,06</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-4,18; 49,94</t>
+          <t>-42,52; 11,82</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,88</t>
+          <t>0,95</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,39</t>
+          <t>1,06</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,44</t>
+          <t>-0,65</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,16</t>
+          <t>3,97</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,29</t>
+          <t>1,01</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-2,68</t>
+          <t>1,76</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-0,99</t>
+          <t>2,55</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-0,79</t>
+          <t>1,04</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-0,55</t>
+          <t>0,72</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,76; 0,91</t>
+          <t>-1,65; 3,24</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,14; 1,23</t>
+          <t>-1,54; 3,33</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 4,82</t>
+          <t>-2,86; 1,5</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,15; 3,05</t>
+          <t>1,43; 7,22</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,95; 2,96</t>
+          <t>-1,99; 3,8</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-6,6; 0,92</t>
+          <t>-1,31; 4,62</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,3; 1,42</t>
+          <t>0,72; 4,47</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-3,21; 1,46</t>
+          <t>-0,65; 2,92</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 1,96</t>
+          <t>-1,19; 2,56</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-25,74%</t>
+          <t>14,64%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-19,0%</t>
+          <t>16,33%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>19,64%</t>
+          <t>-10,09%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-1,18%</t>
+          <t>38,29%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-2,15%</t>
+          <t>9,72%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-20,11%</t>
+          <t>16,94%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-9,54%</t>
+          <t>29,87%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-7,66%</t>
+          <t>12,22%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-5,3%</t>
+          <t>8,44%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-54,2; 19,73</t>
+          <t>-21,08; 60,96</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-46,04; 24,4</t>
+          <t>-19,39; 62,53</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-18,93; 77,56</t>
+          <t>-37,87; 29,57</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-26,61; 26,63</t>
+          <t>12,2; 80,61</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-26,48; 26,25</t>
+          <t>-16,88; 42,46</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-44,22; 7,81</t>
+          <t>-10,39; 50,62</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-28,62; 15,08</t>
+          <t>7,25; 58,14</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-27,17; 17,06</t>
+          <t>-7,14; 38,14</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-28,94; 21,41</t>
+          <t>-12,72; 33,3</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>1,04</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>1,06</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-0,7</t>
+          <t>-0,3</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>3,97</t>
+          <t>5,22</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>1,01</t>
+          <t>2,78</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>2,77</t>
+          <t>1,37</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>2,55</t>
+          <t>3,17</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>1,04</t>
+          <t>1,44</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>1,26</t>
+          <t>0,58</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 3,24</t>
+          <t>-0,16; 2,34</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 3,33</t>
+          <t>-1,19; 1,11</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 1,49</t>
+          <t>-1,7; 1,05</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1,43; 7,22</t>
+          <t>3,6; 6,64</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 3,8</t>
+          <t>1,19; 4,4</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,14; 5,69</t>
+          <t>-0,77; 2,88</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,72; 4,47</t>
+          <t>2,15; 4,22</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 2,92</t>
+          <t>0,49; 2,34</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 3,05</t>
+          <t>-0,7; 1,72</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>14,64%</t>
+          <t>17,11%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>16,33%</t>
+          <t>0,3%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-10,74%</t>
+          <t>-4,9%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>38,29%</t>
+          <t>55,47%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>9,72%</t>
+          <t>29,48%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>26,66%</t>
+          <t>14,59%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>29,87%</t>
+          <t>40,91%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>12,22%</t>
+          <t>18,52%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>14,8%</t>
+          <t>7,53%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-21,08; 60,96</t>
+          <t>-2,44; 44,0</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-19,39; 62,53</t>
+          <t>-18,07; 21,52</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-38,38; 27,17</t>
+          <t>-26,36; 19,21</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>12,2; 80,61</t>
+          <t>35,14; 75,35</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-16,88; 42,46</t>
+          <t>11,89; 51,67</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>0,71; 60,71</t>
+          <t>-7,14; 32,66</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>7,25; 58,14</t>
+          <t>25,88; 58,26</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-7,14; 38,14</t>
+          <t>6,0; 32,22</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-5,78; 39,22</t>
+          <t>-8,81; 23,17</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>1,04</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>0,02</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>0,16</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>5,22</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>2,78</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>2,2</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>3,17</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>1,44</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>1,31</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-0,16; 2,34</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-1,19; 1,11</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-1,04; 1,4</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>3,6; 6,64</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>1,19; 4,4</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>0,6; 3,6</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>2,15; 4,22</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>0,49; 2,34</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>0,38; 2,43</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>17,11%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>0,3%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>2,61%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>55,47%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>29,48%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>23,34%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>40,91%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>18,52%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>16,89%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-2,44; 44,0</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-18,07; 21,52</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-15,45; 25,74</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>35,14; 75,35</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>11,89; 51,67</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>5,93; 40,75</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>25,88; 58,26</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>6,0; 32,22</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>4,75; 33,6</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_camb/P1001-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P1001-Habitat-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,14; 5,08</t>
+          <t>-0,0; 4,97</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 3,9</t>
+          <t>-0,63; 4,16</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 3,65</t>
+          <t>-0,99; 3,76</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,87; 11,65</t>
+          <t>5,42; 11,67</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,87; 9,27</t>
+          <t>2,96; 9,27</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,53; 6,59</t>
+          <t>1,59; 6,63</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,43; 7,53</t>
+          <t>3,4; 7,46</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,63; 5,95</t>
+          <t>1,71; 5,87</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,84; 4,44</t>
+          <t>0,97; 4,48</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,76; 148,79</t>
+          <t>-2,0; 144,2</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-17,68; 120,02</t>
+          <t>-13,24; 123,47</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-21,62; 110,06</t>
+          <t>-19,08; 126,77</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>60,89; 212,21</t>
+          <t>66,52; 221,64</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>34,91; 170,95</t>
+          <t>36,19; 176,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>18,24; 122,85</t>
+          <t>17,82; 121,71</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>52,93; 162,89</t>
+          <t>51,07; 157,3</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>24,54; 130,13</t>
+          <t>26,7; 126,59</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>12,88; 97,52</t>
+          <t>15,0; 96,12</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 4,61</t>
+          <t>-0,07; 4,67</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 0,99</t>
+          <t>-3,18; 0,94</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,71; 0,2</t>
+          <t>-4,69; 0,38</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,23; 11,32</t>
+          <t>5,21; 11,15</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,34; 7,19</t>
+          <t>1,56; 7,33</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,91; 5,8</t>
+          <t>0,95; 5,9</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,25; 7,05</t>
+          <t>3,2; 7,08</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 3,49</t>
+          <t>-0,09; 3,46</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 2,19</t>
+          <t>-2,32; 2,35</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,32; 92,03</t>
+          <t>-2,06; 92,75</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-45,73; 21,55</t>
+          <t>-44,97; 19,1</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-64,81; 4,26</t>
+          <t>-65,22; 6,21</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>57,74; 182,46</t>
+          <t>57,86; 182,32</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>14,72; 113,87</t>
+          <t>14,95; 117,56</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>8,8; 95,16</t>
+          <t>8,84; 92,79</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>40,97; 119,03</t>
+          <t>39,29; 116,74</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 57,39</t>
+          <t>-1,68; 56,58</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-30,21; 34,82</t>
+          <t>-27,32; 38,88</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,76; 0,91</t>
+          <t>-4,63; 0,96</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,14; 1,23</t>
+          <t>-4,24; 1,55</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 4,7</t>
+          <t>-1,8; 4,77</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,15; 3,05</t>
+          <t>-3,86; 3,6</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,95; 2,96</t>
+          <t>-3,84; 3,13</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-9,47; -0,28</t>
+          <t>-10,36; -0,56</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,3; 1,42</t>
+          <t>-3,4; 1,11</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,21; 1,46</t>
+          <t>-3,23; 1,34</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-4,89; 1,1</t>
+          <t>-5,54; 0,82</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-54,2; 19,73</t>
+          <t>-52,85; 19,3</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-46,04; 24,4</t>
+          <t>-47,69; 26,25</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-19,69; 75,01</t>
+          <t>-22,05; 83,58</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-26,61; 26,63</t>
+          <t>-25,75; 30,38</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-26,48; 26,25</t>
+          <t>-25,67; 26,19</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-61,64; -2,57</t>
+          <t>-65,35; -4,82</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-28,62; 15,08</t>
+          <t>-28,06; 12,2</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-27,17; 17,06</t>
+          <t>-27,64; 14,96</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-42,52; 11,82</t>
+          <t>-47,65; 9,19</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 3,24</t>
+          <t>-1,49; 3,34</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 3,33</t>
+          <t>-1,35; 3,42</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 1,5</t>
+          <t>-2,92; 1,58</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,43; 7,22</t>
+          <t>0,99; 6,9</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 3,8</t>
+          <t>-1,62; 4,19</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 4,62</t>
+          <t>-1,64; 4,45</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,72; 4,47</t>
+          <t>0,46; 4,31</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 2,92</t>
+          <t>-0,9; 2,87</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 2,56</t>
+          <t>-1,09; 2,68</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-21,08; 60,96</t>
+          <t>-19,03; 60,41</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-19,39; 62,53</t>
+          <t>-17,63; 65,05</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-37,87; 29,57</t>
+          <t>-38,3; 31,02</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>12,2; 80,61</t>
+          <t>7,64; 75,26</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-16,88; 42,46</t>
+          <t>-14,38; 46,57</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-10,39; 50,62</t>
+          <t>-13,58; 48,18</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>7,25; 58,14</t>
+          <t>5,37; 57,2</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-7,14; 38,14</t>
+          <t>-9,7; 36,78</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-12,72; 33,3</t>
+          <t>-11,86; 34,79</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 2,34</t>
+          <t>-0,18; 2,44</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 1,11</t>
+          <t>-1,13; 1,14</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 1,05</t>
+          <t>-1,76; 0,98</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>3,6; 6,64</t>
+          <t>3,76; 6,87</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>1,19; 4,4</t>
+          <t>1,33; 4,28</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 2,88</t>
+          <t>-0,78; 2,87</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>2,15; 4,22</t>
+          <t>2,2; 4,23</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0,49; 2,34</t>
+          <t>0,5; 2,46</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 1,72</t>
+          <t>-0,7; 1,68</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 44,0</t>
+          <t>-2,9; 44,46</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-18,07; 21,52</t>
+          <t>-17,67; 21,42</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-26,36; 19,21</t>
+          <t>-26,25; 17,42</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>35,14; 75,35</t>
+          <t>37,5; 79,08</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>11,89; 51,67</t>
+          <t>12,65; 49,13</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-7,14; 32,66</t>
+          <t>-8,09; 32,27</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>25,88; 58,26</t>
+          <t>26,84; 57,87</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>6,0; 32,22</t>
+          <t>6,11; 33,39</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-8,81; 23,17</t>
+          <t>-8,69; 22,98</t>
         </is>
       </c>
     </row>
